--- a/final.xlsx
+++ b/final.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="54">
   <si>
     <t>purchase_date</t>
   </si>
@@ -206,6 +206,9 @@
   </si>
   <si>
     <t>without nett sales</t>
+  </si>
+  <si>
+    <t>average</t>
   </si>
 </sst>
 </file>
@@ -372,7 +375,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -437,6 +440,9 @@
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -688,13 +694,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Rasio Transaksi</a:t>
+              <a:t>Rasio Transaksi Menggunakan dan Tanpa Promo Periode Juli-Desember</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Menggunakan dan Tanpa Promo Periode Juli-Desember</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -763,6 +764,48 @@
             <a:effectLst/>
           </c:spPr>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="1"/>
@@ -826,6 +869,7 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -878,7 +922,59 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:delete val="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -992,6 +1088,7 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -1074,6 +1171,7 @@
           </c:val>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -1081,7 +1179,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="95"/>
+        <c:gapWidth val="150"/>
         <c:overlap val="100"/>
         <c:axId val="408347712"/>
         <c:axId val="408342816"/>
@@ -1144,6 +1242,32 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                      <a:alpha val="42000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="36000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3174,16 +3298,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>4761</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>840844</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>157692</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>409574</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>49741</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:rowOff>19579</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7026,7 +7150,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="29">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="30">
   <location ref="J14:M22" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" numFmtId="14" showAll="0">
@@ -7332,7 +7456,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
   <location ref="J3:M11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" numFmtId="14" showAll="0">
@@ -8138,9 +8262,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S395"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L22" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8415,8 +8537,8 @@
         <v>0.49830890642615561</v>
       </c>
       <c r="Q6" s="22">
-        <f t="shared" ref="Q6:Q10" si="0">GETPIVOTDATA("total_transaksi",$J$3,"Bulan","September","campaign or no","TANPA CAMPAIGN")/GETPIVOTDATA("total_transaksi",$J$3,"Bulan","September")</f>
-        <v>0.49116161616161619</v>
+        <f>GETPIVOTDATA("total_transaksi",$J$3,"Bulan","November","campaign or no","TANPA CAMPAIGN")/GETPIVOTDATA("total_transaksi",$J$3,"Bulan","November")</f>
+        <v>0.50169109357384445</v>
       </c>
       <c r="R6" s="16"/>
       <c r="S6" s="16"/>
@@ -8467,8 +8589,8 @@
         <v>0.52349726775956285</v>
       </c>
       <c r="Q7" s="22">
-        <f t="shared" si="0"/>
-        <v>0.49116161616161619</v>
+        <f>GETPIVOTDATA("total_transaksi",$J$3,"Bulan","Agustus","campaign or no","TANPA CAMPAIGN")/GETPIVOTDATA("total_transaksi",$J$3,"Bulan","Agustus")</f>
+        <v>0.47650273224043715</v>
       </c>
       <c r="R7" s="16"/>
       <c r="S7" s="16"/>
@@ -8515,12 +8637,12 @@
         <v>0.28385416666666669</v>
       </c>
       <c r="P8" s="21">
-        <f t="shared" ref="P8:P10" si="1">GETPIVOTDATA("total_transaksi",$J$3,"Bulan","Agustus","campaign or no","CAMPAIGN")/GETPIVOTDATA("total_transaksi",$J$3,"Bulan","Agustus")</f>
-        <v>0.52349726775956285</v>
+        <f>GETPIVOTDATA("total_transaksi",$J$3,"Bulan","Desember","campaign or no","CAMPAIGN")/GETPIVOTDATA("total_transaksi",$J$3,"Bulan","Desember")</f>
+        <v>0.64192708333333337</v>
       </c>
       <c r="Q8" s="22">
-        <f t="shared" si="0"/>
-        <v>0.49116161616161619</v>
+        <f>GETPIVOTDATA("total_transaksi",$J$3,"Bulan","Desember","campaign or no","TANPA CAMPAIGN")/GETPIVOTDATA("total_transaksi",$J$3,"Bulan","Desember")</f>
+        <v>0.35807291666666669</v>
       </c>
       <c r="R8" s="16"/>
       <c r="S8" s="16"/>
@@ -8567,12 +8689,12 @@
         <v>1.2391573729863693E-3</v>
       </c>
       <c r="P9" s="21">
-        <f t="shared" si="1"/>
-        <v>0.52349726775956285</v>
+        <f>GETPIVOTDATA("total_transaksi",$J$3,"Bulan","Juli","campaign or no","CAMPAIGN")/GETPIVOTDATA("total_transaksi",$J$3,"Bulan","Juli")</f>
+        <v>0.50061957868649321</v>
       </c>
       <c r="Q9" s="22">
-        <f t="shared" si="0"/>
-        <v>0.49116161616161619</v>
+        <f>GETPIVOTDATA("total_transaksi",$J$3,"Bulan","Juli","campaign or no","TANPA CAMPAIGN")/GETPIVOTDATA("total_transaksi",$J$3,"Bulan","Juli")</f>
+        <v>0.49938042131350679</v>
       </c>
       <c r="R9" s="16"/>
       <c r="S9" s="16"/>
@@ -8619,12 +8741,12 @@
         <v>-7.1428571428571426E-3</v>
       </c>
       <c r="P10" s="21">
-        <f t="shared" si="1"/>
-        <v>0.52349726775956285</v>
+        <f>GETPIVOTDATA("total_transaksi",$J$3,"Bulan","Oktober","campaign or no","CAMPAIGN")/GETPIVOTDATA("total_transaksi",$J$3,"Bulan","Oktober")</f>
+        <v>0.49642857142857144</v>
       </c>
       <c r="Q10" s="22">
-        <f t="shared" si="0"/>
-        <v>0.49116161616161619</v>
+        <f>GETPIVOTDATA("total_transaksi",$J$3,"Bulan","Oktober","campaign or no","TANPA CAMPAIGN")/GETPIVOTDATA("total_transaksi",$J$3,"Bulan","Oktober")</f>
+        <v>0.50357142857142856</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -8662,6 +8784,21 @@
       </c>
       <c r="M11" s="16">
         <v>5777</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O11" s="27">
+        <f>AVERAGE(O5:O10)</f>
+        <v>5.6539930490833411E-2</v>
+      </c>
+      <c r="P11" s="27">
+        <f t="shared" ref="P11:Q11" si="0">AVERAGE(P5:P10)</f>
+        <v>0.52826996524541669</v>
+      </c>
+      <c r="Q11" s="27">
+        <f t="shared" si="0"/>
+        <v>0.47173003475458336</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -8895,16 +9032,16 @@
       </c>
       <c r="N17"/>
       <c r="O17" s="21">
-        <f t="shared" ref="O17:O21" si="2">(GETPIVOTDATA("nett_sales_campaign",$J$14,"Bulan","September","campaign or no","CAMPAIGN")-GETPIVOTDATA("nett_sales_campaign",$J$14,"Bulan","September","campaign or no","TANPA CAMPAIGN"))/GETPIVOTDATA("nett_sales_campaign",$J$14,"Bulan","September")</f>
-        <v>1.2248526899459707E-2</v>
+        <f>(GETPIVOTDATA("nett_sales_campaign",$J$14,"Bulan","November","campaign or no","CAMPAIGN")-GETPIVOTDATA("nett_sales_campaign",$J$14,"Bulan","November","campaign or no","TANPA CAMPAIGN"))/GETPIVOTDATA("nett_sales_campaign",$J$14,"Bulan","November")</f>
+        <v>-9.1600296677810167E-2</v>
       </c>
       <c r="P17" s="19">
-        <f t="shared" ref="P17:P21" si="3">GETPIVOTDATA("nett_sales_campaign",$J$14,"Bulan","September","campaign or no","CAMPAIGN")/GETPIVOTDATA("nett_sales_campaign",$J$14,"Bulan","September")</f>
-        <v>0.50612426344972983</v>
+        <f>GETPIVOTDATA("nett_sales_campaign",$J$14,"Bulan","November","campaign or no","CAMPAIGN")/GETPIVOTDATA("nett_sales_campaign",$J$14,"Bulan","November")</f>
+        <v>0.45419985166109489</v>
       </c>
       <c r="Q17" s="19">
-        <f t="shared" ref="Q17:Q21" si="4">GETPIVOTDATA("nett_sales_campaign",$J$14,"Bulan","September","campaign or no","TANPA CAMPAIGN")/GETPIVOTDATA("nett_sales_campaign",$J$14,"Bulan","September")</f>
-        <v>0.49387573655027017</v>
+        <f>GETPIVOTDATA("nett_sales_campaign",$J$14,"Bulan","November","campaign or no","TANPA CAMPAIGN")/GETPIVOTDATA("nett_sales_campaign",$J$14,"Bulan","November")</f>
+        <v>0.54580014833890511</v>
       </c>
       <c r="R17"/>
       <c r="S17"/>
@@ -8946,16 +9083,16 @@
       </c>
       <c r="N18"/>
       <c r="O18" s="21">
-        <f t="shared" si="2"/>
-        <v>1.2248526899459707E-2</v>
+        <f>(GETPIVOTDATA("nett_sales_campaign",$J$14,"Bulan","Agustus","campaign or no","CAMPAIGN")-GETPIVOTDATA("nett_sales_campaign",$J$14,"Bulan","Agustus","campaign or no","TANPA CAMPAIGN"))/GETPIVOTDATA("nett_sales_campaign",$J$14,"Bulan","Agustus")</f>
+        <v>0.13213203199646545</v>
       </c>
       <c r="P18" s="19">
-        <f t="shared" si="3"/>
-        <v>0.50612426344972983</v>
+        <f>GETPIVOTDATA("nett_sales_campaign",$J$14,"Bulan","Agustus","campaign or no","CAMPAIGN")/GETPIVOTDATA("nett_sales_campaign",$J$14,"Bulan","Agustus")</f>
+        <v>0.5660660159982327</v>
       </c>
       <c r="Q18" s="19">
-        <f t="shared" si="4"/>
-        <v>0.49387573655027017</v>
+        <f>GETPIVOTDATA("nett_sales_campaign",$J$14,"Bulan","Agustus","campaign or no","TANPA CAMPAIGN")/GETPIVOTDATA("nett_sales_campaign",$J$14,"Bulan","Agustus")</f>
+        <v>0.43393398400176725</v>
       </c>
       <c r="R18"/>
       <c r="S18"/>
@@ -8997,16 +9134,16 @@
       </c>
       <c r="N19"/>
       <c r="O19" s="21">
-        <f t="shared" si="2"/>
-        <v>1.2248526899459707E-2</v>
+        <f>(GETPIVOTDATA("nett_sales_campaign",$J$14,"Bulan","Desember","campaign or no","CAMPAIGN")-GETPIVOTDATA("nett_sales_campaign",$J$14,"Bulan","Desember","campaign or no","TANPA CAMPAIGN"))/GETPIVOTDATA("nett_sales_campaign",$J$14,"Bulan","Desember")</f>
+        <v>0.27544683012185855</v>
       </c>
       <c r="P19" s="19">
-        <f t="shared" si="3"/>
-        <v>0.50612426344972983</v>
+        <f>GETPIVOTDATA("nett_sales_campaign",$J$14,"Bulan","Desember","campaign or no","CAMPAIGN")/GETPIVOTDATA("nett_sales_campaign",$J$14,"Bulan","Desember")</f>
+        <v>0.63772341506092922</v>
       </c>
       <c r="Q19" s="19">
-        <f t="shared" si="4"/>
-        <v>0.49387573655027017</v>
+        <f>GETPIVOTDATA("nett_sales_campaign",$J$14,"Bulan","Desember","campaign or no","TANPA CAMPAIGN")/GETPIVOTDATA("nett_sales_campaign",$J$14,"Bulan","Desember")</f>
+        <v>0.36227658493907072</v>
       </c>
       <c r="R19"/>
       <c r="S19"/>
@@ -9048,16 +9185,16 @@
       </c>
       <c r="N20"/>
       <c r="O20" s="21">
-        <f t="shared" si="2"/>
-        <v>1.2248526899459707E-2</v>
+        <f>(GETPIVOTDATA("nett_sales_campaign",$J$14,"Bulan","Juli","campaign or no","CAMPAIGN")-GETPIVOTDATA("nett_sales_campaign",$J$14,"Bulan","Juli","campaign or no","TANPA CAMPAIGN"))/GETPIVOTDATA("nett_sales_campaign",$J$14,"Bulan","Juli")</f>
+        <v>5.6916409330913256E-2</v>
       </c>
       <c r="P20" s="19">
-        <f t="shared" si="3"/>
-        <v>0.50612426344972983</v>
+        <f>GETPIVOTDATA("nett_sales_campaign",$J$14,"Bulan","Juli","campaign or no","CAMPAIGN")/GETPIVOTDATA("nett_sales_campaign",$J$14,"Bulan","Juli")</f>
+        <v>0.52845820466545668</v>
       </c>
       <c r="Q20" s="19">
-        <f t="shared" si="4"/>
-        <v>0.49387573655027017</v>
+        <f>GETPIVOTDATA("nett_sales_campaign",$J$14,"Bulan","Juli","campaign or no","TANPA CAMPAIGN")/GETPIVOTDATA("nett_sales_campaign",$J$14,"Bulan","Juli")</f>
+        <v>0.47154179533454338</v>
       </c>
       <c r="R20"/>
       <c r="S20"/>
@@ -9099,16 +9236,16 @@
       </c>
       <c r="N21"/>
       <c r="O21" s="21">
-        <f t="shared" si="2"/>
-        <v>1.2248526899459707E-2</v>
+        <f>(GETPIVOTDATA("nett_sales_campaign",$J$14,"Bulan","Oktober","campaign or no","CAMPAIGN")-GETPIVOTDATA("nett_sales_campaign",$J$14,"Bulan","Oktober","campaign or no","TANPA CAMPAIGN"))/GETPIVOTDATA("nett_sales_campaign",$J$14,"Bulan","Oktober")</f>
+        <v>6.7741826916629333E-2</v>
       </c>
       <c r="P21" s="19">
-        <f t="shared" si="3"/>
-        <v>0.50612426344972983</v>
+        <f>GETPIVOTDATA("nett_sales_campaign",$J$14,"Bulan","Oktober","campaign or no","CAMPAIGN")/GETPIVOTDATA("nett_sales_campaign",$J$14,"Bulan","Oktober")</f>
+        <v>0.53387091345831472</v>
       </c>
       <c r="Q21" s="19">
-        <f t="shared" si="4"/>
-        <v>0.49387573655027017</v>
+        <f>GETPIVOTDATA("nett_sales_campaign",$J$14,"Bulan","Oktober","campaign or no","TANPA CAMPAIGN")/GETPIVOTDATA("nett_sales_campaign",$J$14,"Bulan","Oktober")</f>
+        <v>0.46612908654168533</v>
       </c>
       <c r="R21"/>
       <c r="S21"/>
@@ -9148,10 +9285,21 @@
       <c r="M22" s="16">
         <v>2148648091</v>
       </c>
-      <c r="N22"/>
-      <c r="O22"/>
-      <c r="P22"/>
-      <c r="Q22"/>
+      <c r="N22" t="s">
+        <v>53</v>
+      </c>
+      <c r="O22" s="20">
+        <f>AVERAGE(O16:O21)</f>
+        <v>7.5480888097919349E-2</v>
+      </c>
+      <c r="P22" s="20">
+        <f t="shared" ref="P22:Q22" si="1">AVERAGE(P16:P21)</f>
+        <v>0.53774044404895971</v>
+      </c>
+      <c r="Q22" s="20">
+        <f t="shared" si="1"/>
+        <v>0.46225955595104035</v>
+      </c>
       <c r="R22"/>
       <c r="S22"/>
     </row>
